--- a/ScenarioTemplate/UIDMatrix.xlsx
+++ b/ScenarioTemplate/UIDMatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarip/Developer/GHGScenario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{842A1544-FB0A-2B40-9BC8-745ED7ADE593}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903D6A10-145C-7640-9D12-EEDD36466018}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="-22280" windowWidth="27720" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="26740" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIDMatrix" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="212">
   <si>
     <t>Carbon stoc changes and other emissions by gases</t>
   </si>
@@ -598,6 +598,69 @@
   </si>
   <si>
     <t>DB6253EB-8660-4C1C-B880-10991D8E2DC5</t>
+  </si>
+  <si>
+    <t>1632C1F2-832E-48D5-BA76-AA1DFAA643DC</t>
+  </si>
+  <si>
+    <t>33B17FCF-CEF0-4C52-A083-41E77975CC17</t>
+  </si>
+  <si>
+    <t>FFD8E79B-1DA0-4399-910A-6E875F1A8F58</t>
+  </si>
+  <si>
+    <t>E1B2A0CF-5F9F-445E-9715-C274A0CD4A26</t>
+  </si>
+  <si>
+    <t>176984AA-39DD-46BD-8783-2632BEF3C520</t>
+  </si>
+  <si>
+    <t>0A0CAA48-DB6F-412A-AFBD-8F078B1AF8A6</t>
+  </si>
+  <si>
+    <t>Sawnwood domestic</t>
+  </si>
+  <si>
+    <t>Sawnwood exported</t>
+  </si>
+  <si>
+    <t>Sawnwood total</t>
+  </si>
+  <si>
+    <t>Wood panels domestic</t>
+  </si>
+  <si>
+    <t>Wood panels exported</t>
+  </si>
+  <si>
+    <t>Wood panels total</t>
+  </si>
+  <si>
+    <t>Paper and paperboard domestic</t>
+  </si>
+  <si>
+    <t>Paper and paperboard exported</t>
+  </si>
+  <si>
+    <t>Paper and paperboard total</t>
+  </si>
+  <si>
+    <t>0B29C52E-CF04-46A9-AF23-BA996645E547</t>
+  </si>
+  <si>
+    <t>054E0C6F-5E84-4411-9022-B04049A2C6D0</t>
+  </si>
+  <si>
+    <t>185C43A5-D840-460E-8163-8B2F7BBB952C</t>
+  </si>
+  <si>
+    <t>3BBB8E1F-6E69-4551-A0F4-527BFBBBDBFB</t>
+  </si>
+  <si>
+    <t>42476E95-C4C0-4787-8E7B-2CDA36458710</t>
+  </si>
+  <si>
+    <t>CA184B1C-EB7C-42CB-897C-57AC319EAF39</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1125,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A3:AP126"/>
+  <dimension ref="A3:AP130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1271,6 +1334,9 @@
       <c r="H9" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="I9" s="25" t="s">
+        <v>195</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>117</v>
       </c>
@@ -1306,6 +1372,9 @@
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C10" s="25" t="s">
+        <v>194</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>94</v>
       </c>
@@ -1318,11 +1387,17 @@
       <c r="H10" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="I10" s="25" t="s">
+        <v>196</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>118</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>124</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>139</v>
@@ -1405,6 +1480,9 @@
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C14" s="25" t="s">
+        <v>192</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>95</v>
       </c>
@@ -1457,6 +1535,9 @@
       </c>
       <c r="B15" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>191</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>96</v>
@@ -1793,16 +1874,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
       <c r="B49" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
     </row>
-    <row r="51" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="30">
         <v>24</v>
       </c>
@@ -1810,7 +1891,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="30">
         <v>25</v>
       </c>
@@ -1818,7 +1899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="30">
         <v>26</v>
       </c>
@@ -1826,313 +1907,381 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+    <row r="61" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+    </row>
+    <row r="62" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="31">
         <v>27</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="31">
         <v>28</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="31">
+      <c r="B63" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="31"/>
+      <c r="B64" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="31"/>
+    </row>
+    <row r="65" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="31">
         <v>29</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="31">
+        <v>30</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="31"/>
+      <c r="B67" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="31"/>
+    </row>
+    <row r="68" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="31">
+        <v>31</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="31">
+        <v>32</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="31"/>
+    </row>
+    <row r="71" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+      <c r="C71" s="31"/>
+    </row>
+    <row r="73" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+    <row r="75" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="4" t="s">
+    <row r="76" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="5" t="s">
+    <row r="77" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="5" t="s">
+    <row r="78" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="5" t="s">
+    <row r="79" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="6" t="s">
+    <row r="80" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="6" t="s">
+    <row r="81" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="4" t="s">
+    <row r="82" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="4" t="s">
+    <row r="83" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="15" t="s">
+    <row r="84" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
+    <row r="86" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="8" t="s">
+    <row r="87" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="8" t="s">
+    <row r="88" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="17" t="s">
+    <row r="89" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
+    <row r="91" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="18" t="s">
+    <row r="103" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="10" t="s">
+    <row r="105" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="19" t="s">
+    <row r="106" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="s">
+    <row r="108" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="11" t="s">
+    <row r="109" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="11" t="s">
+    <row r="110" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="20" t="s">
+    <row r="111" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="12" t="s">
+    <row r="113" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="12" t="s">
+    <row r="114" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="115" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="12" t="s">
+    <row r="121" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="21" t="s">
+    <row r="122" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="13" t="s">
+    <row r="124" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="13" t="s">
+    <row r="125" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="13" t="s">
+    <row r="126" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="13" t="s">
+    <row r="127" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="22" t="s">
+    <row r="128" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="23" t="s">
+    <row r="130" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="23" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>